--- a/assets/info/marcas-precios-db.xlsx
+++ b/assets/info/marcas-precios-db.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
   <si>
     <t xml:space="preserve">Nº</t>
   </si>
   <si>
+    <t xml:space="preserve">Usuario</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
@@ -32,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">Lugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre Lugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fecha</t>
   </si>
   <si>
     <t xml:space="preserve">A1</t>
@@ -439,6 +448,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -544,15 +554,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:FI1"/>
+  <dimension ref="A1:FL1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EY1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="FJ3" activeCellId="0" sqref="FJ3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="38.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,157 +783,157 @@
         <v>72</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DU1" s="1" t="s">
         <v>107</v>
@@ -935,118 +945,127 @@
         <v>109</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
